--- a/Sem VI/Software Systems Verification & Validation/Laboratories/Lab03/solution/take-home/Lab03_WBT_Form.xlsx
+++ b/Sem VI/Software Systems Verification & Validation/Laboratories/Lab03/solution/take-home/Lab03_WBT_Form.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -65,10 +65,66 @@
     <t>Excel Worksheet Name</t>
   </si>
   <si>
+    <t>Export Summary</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
     <t>Problem</t>
   </si>
   <si>
-    <t>Table 1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Problem</t>
+    </r>
+  </si>
+  <si>
+    <t>Req_CFG_CC_Paths</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Req_CFG_CC_Paths</t>
+    </r>
+  </si>
+  <si>
+    <t>Req_TC_coverage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Req_TC_coverage</t>
+    </r>
+  </si>
+  <si>
+    <t>Req_Statistics</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Req_Statistics</t>
+    </r>
   </si>
   <si>
     <t>Statement</t>
@@ -236,9 +292,6 @@
     </r>
   </si>
   <si>
-    <t>Req_CFG_CC_Paths</t>
-  </si>
-  <si>
     <t>Cyclomatic complexity</t>
   </si>
   <si>
@@ -275,9 +328,6 @@
     <t>1-3-5-7-9</t>
   </si>
   <si>
-    <t>Req_TC_coverage</t>
-  </si>
-  <si>
     <t>Condition/Decision coverage</t>
   </si>
   <si>
@@ -381,9 +431,6 @@
   </si>
   <si>
     <t>3) TCs: n,m,o - not possible - compiler checked</t>
-  </si>
-  <si>
-    <t>Req_Statistics</t>
   </si>
   <si>
     <t>Testing</t>
@@ -513,7 +560,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <color indexed="12"/>
+      <color indexed="13"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -570,7 +617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -599,7 +646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -609,28 +656,115 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -657,22 +791,22 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -684,28 +818,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -714,16 +848,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,16 +915,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,13 +933,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,22 +948,22 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -841,7 +975,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
@@ -862,10 +996,10 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,7 +1038,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -916,7 +1050,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
@@ -925,7 +1059,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,7 +1099,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1047,7 +1181,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -1056,7 +1190,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,10 +1199,10 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1077,13 +1211,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1101,7 +1235,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,7 +1247,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1126,7 +1260,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1148,286 +1282,301 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1450,8 +1599,8 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffff00"/>
       <rgbColor rgb="ff92d050"/>
       <rgbColor rgb="ff99ccff"/>
@@ -1469,92 +1618,157 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>376237</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>119300</xdr:rowOff>
+      <xdr:rowOff>119138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
+      <xdr:colOff>709612</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>175974</xdr:rowOff>
+      <xdr:rowOff>176135</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 45"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 45"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="390525" y="309800"/>
-          <a:ext cx="3352800" cy="3866675"/>
+          <a:off x="376237" y="309638"/>
+          <a:ext cx="3381376" cy="3866998"/>
+          <a:chOff x="-14287" y="-161"/>
+          <a:chExt cx="3381375" cy="3866996"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent3">
-                <a:hueOff val="263624"/>
-                <a:satOff val="55948"/>
-                <a:lumOff val="27907"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:srgbClr val="E4FDBF"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent3">
-                <a:hueOff val="321492"/>
-                <a:satOff val="58119"/>
-                <a:lumOff val="40966"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-        <a:ln w="9525" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="98B955"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Rectangle"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="-1"/>
+            <a:ext cx="3352800" cy="3866676"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent3">
+                  <a:hueOff val="263624"/>
+                  <a:satOff val="55948"/>
+                  <a:lumOff val="27907"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="35000">
+                <a:srgbClr val="E4FDBF"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent3">
+                  <a:hueOff val="321492"/>
+                  <a:satOff val="58119"/>
+                  <a:lumOff val="40966"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="98B955"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="//service…"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-14288" y="-162"/>
+            <a:ext cx="3381376" cy="3866998"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:miter lim="400000"/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="ctr">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>//service</a:t>
+            </a:r>
+            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1563,10 +1777,48 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>temaValidator.validate(tema);</a:t>
+            </a:r>
+            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1575,36 +1827,35 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>//service</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1613,10 +1864,35 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1625,36 +1901,48 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>temaValidator.validate(tema);</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>//validator</a:t>
+            </a:r>
+            <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1663,433 +1951,326 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>//validator</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>if(entity.getID().equals("") || entity.getID() == null) {</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>    throw new ValidationException("Numar tema invalid!");</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>if(entity.getDescriere().equals("")){</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>    throw new ValidationException("Descriere invalida!");</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>if(entity.getDeadline() &lt; 1 || entity.getDeadline() &gt; 14) {</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>    throw new ValidationException("Deadlineul trebuie sa fie intre 1-14.");</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>if(entity.getPrimire() &lt; 1 || entity.getPrimire() &gt; 14) {</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>    throw new ValidationException("Saptamana primirii trebuie sa fie intre 1-14.");</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>if(entity.getID().equals("") || entity.getID() == null) {</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>    throw new ValidationException("Numar tema invalid!");</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>}</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>if(entity.getDescriere().equals("")){</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>    throw new ValidationException("Descriere invalida!");</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>}</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>if(entity.getDeadline() &lt; 1 || entity.getDeadline() &gt; 14) {</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>    throw new ValidationException("Deadlineul trebuie sa fie intre 1-14.");</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>}</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>if(entity.getPrimire() &lt; 1 || entity.getPrimire() &gt; 14) {</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>    throw new ValidationException("Saptamana primirii trebuie sa fie intre 1-14.");</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>}</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2101,19 +2282,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>668337</xdr:colOff>
+      <xdr:colOff>668336</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 45"/>
+        <xdr:cNvPr id="5" name="Rectangle 45"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4475162" y="561975"/>
-          <a:ext cx="4029076" cy="3362326"/>
+          <a:off x="4475161" y="561975"/>
+          <a:ext cx="4029076" cy="3362325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2167,39 +2348,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673098</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>90489</xdr:rowOff>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289913</xdr:colOff>
+      <xdr:colOff>308963</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>138465</xdr:rowOff>
+      <xdr:rowOff>86550</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Oval 4"/>
+        <xdr:cNvPr id="8" name="Oval 4"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5816600" y="661989"/>
-          <a:ext cx="1636114" cy="809977"/>
-          <a:chOff x="-88188" y="-115661"/>
-          <a:chExt cx="1636113" cy="809975"/>
+          <a:off x="5816598" y="661988"/>
+          <a:ext cx="1655166" cy="758063"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="1655164" cy="758062"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Oval"/>
+          <xdr:cNvPr id="6" name="Oval"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-88189" y="-115662"/>
-            <a:ext cx="1439245" cy="758061"/>
+            <a:off x="0" y="0"/>
+            <a:ext cx="1439247" cy="758063"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse">
             <a:avLst/>
@@ -2226,13 +2407,13 @@
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="temaValidator.validate(tema)"/>
+          <xdr:cNvPr id="7" name="temaValidator.validate(tema)"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-32830" y="109570"/>
-            <a:ext cx="1580755" cy="584744"/>
+            <a:off x="36308" y="210531"/>
+            <a:ext cx="1618857" cy="225417"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2250,8 +2431,8 @@
           </a:extLst>
         </xdr:spPr>
         <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
-            <a:noAutofit/>
+          <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
+            <a:spAutoFit/>
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
@@ -2308,13 +2489,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>267460</xdr:colOff>
+      <xdr:colOff>267459</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>50239</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Screenshot 2024-04-08 at 23.16.17.png" descr="Screenshot 2024-04-08 at 23.16.17.png"/>
+        <xdr:cNvPr id="9" name="Screenshot 2024-04-08 at 23.16.17.png" descr="Screenshot 2024-04-08 at 23.16.17.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2330,7 +2511,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4779135" y="1473760"/>
-          <a:ext cx="3324226" cy="2386480"/>
+          <a:ext cx="3324225" cy="2386480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2347,24 +2528,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>88265</xdr:rowOff>
+      <xdr:rowOff>74929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>6349</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>102235</xdr:rowOff>
+      <xdr:rowOff>88899</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="1"/>
+        <xdr:cNvPr id="10" name="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6356349" y="1612264"/>
+          <a:off x="6350000" y="1598929"/>
           <a:ext cx="139701" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2434,25 +2615,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>189865</xdr:rowOff>
+      <xdr:rowOff>176529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>13334</xdr:rowOff>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="2"/>
+        <xdr:cNvPr id="11" name="2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5137150" y="2285364"/>
-          <a:ext cx="139701" cy="204471"/>
+          <a:off x="5130800" y="2272029"/>
+          <a:ext cx="139700" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2521,24 +2702,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>383116</xdr:colOff>
+      <xdr:colOff>376766</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>147002</xdr:rowOff>
+      <xdr:rowOff>133667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>522816</xdr:colOff>
+      <xdr:colOff>516466</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>160972</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="3"/>
+        <xdr:cNvPr id="12" name="3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6872816" y="2052002"/>
+          <a:off x="6866466" y="2038667"/>
           <a:ext cx="139701" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2608,24 +2789,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>446616</xdr:colOff>
+      <xdr:colOff>440266</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>88265</xdr:rowOff>
+      <xdr:rowOff>74929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>586316</xdr:colOff>
+      <xdr:colOff>579966</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>102235</xdr:rowOff>
+      <xdr:rowOff>88899</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="5"/>
+        <xdr:cNvPr id="13" name="5"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7609416" y="2564764"/>
+          <a:off x="7603066" y="2551429"/>
           <a:ext cx="139701" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2695,25 +2876,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>88265</xdr:rowOff>
+      <xdr:rowOff>74930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>102235</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="6"/>
+        <xdr:cNvPr id="14" name="6"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6013449" y="3326764"/>
-          <a:ext cx="139701" cy="204471"/>
+          <a:off x="6007100" y="3313430"/>
+          <a:ext cx="139700" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2782,25 +2963,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>88265</xdr:rowOff>
+      <xdr:rowOff>74929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>102235</xdr:rowOff>
+      <xdr:rowOff>88899</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="4"/>
+        <xdr:cNvPr id="15" name="4"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5543550" y="2755264"/>
-          <a:ext cx="139701" cy="204471"/>
+          <a:off x="5537200" y="2741929"/>
+          <a:ext cx="139700" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2869,24 +3050,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>65581</xdr:colOff>
+      <xdr:colOff>59231</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>177165</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>205281</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>635</xdr:rowOff>
+      <xdr:colOff>198931</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="8"/>
+        <xdr:cNvPr id="16" name="8"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6555281" y="3606165"/>
+          <a:off x="6548931" y="3592830"/>
           <a:ext cx="139701" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2956,24 +3137,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>38143</xdr:colOff>
+      <xdr:colOff>31792</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>75565</xdr:rowOff>
+      <xdr:rowOff>62229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>177843</xdr:colOff>
+      <xdr:colOff>171492</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="7"/>
+        <xdr:cNvPr id="17" name="7"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7874043" y="2933065"/>
+          <a:off x="7867692" y="2919729"/>
           <a:ext cx="139701" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3043,24 +3224,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>101643</xdr:colOff>
+      <xdr:colOff>95292</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>189865</xdr:rowOff>
+      <xdr:rowOff>176530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>241343</xdr:colOff>
+      <xdr:colOff>234992</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>13334</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="9"/>
+        <xdr:cNvPr id="18" name="9"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7937543" y="3428364"/>
+          <a:off x="7931192" y="3415030"/>
           <a:ext cx="139701" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3132,23 +3313,23 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>440764</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>82404</xdr:rowOff>
+      <xdr:rowOff>82403</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>132972</xdr:colOff>
+      <xdr:colOff>132971</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>112174</xdr:rowOff>
+      <xdr:rowOff>112172</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6257364" y="1415904"/>
-          <a:ext cx="365309" cy="220271"/>
+          <a:off x="6257364" y="1415903"/>
+          <a:ext cx="365308" cy="220270"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3313,13 +3494,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -3408,7 +3583,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3417,10 +3592,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3666,13 +3841,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -3965,7 +4134,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3974,10 +4143,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -4219,107 +4388,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
     <col min="2" max="4" width="30.5547" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
     <row r="3" ht="0.05" customHeight="1">
-      <c r="B3" t="s" s="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="14">
         <v>3</v>
       </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
       <c r="B11" t="s" s="3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="10"/>
       <c r="B13" t="s" s="3">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="10"/>
       <c r="B14" s="4"/>
       <c r="C14" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" ht="13" customHeight="1">
+      <c r="A15" s="10"/>
       <c r="B15" t="s" s="3">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" ht="13" customHeight="1">
+      <c r="A16" s="20"/>
       <c r="B16" s="4"/>
       <c r="C16" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>66</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17">
+      <c r="B17" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s" s="5">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
+    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'Problem'!R1C1" tooltip="" display="Problem"/>
     <hyperlink ref="D12" location="'Req_CFG_CC_Paths'!R1C1" tooltip="" display="Req_CFG_CC_Paths"/>
     <hyperlink ref="D14" location="'Req_TC_coverage'!R1C1" tooltip="" display="Req_TC_coverage"/>
     <hyperlink ref="D16" location="'Req_Statistics'!R1C1" tooltip="" display="Req_Statistics"/>
+    <hyperlink ref="D12" location="'Problem'!R1C1" tooltip="" display="Problem"/>
+    <hyperlink ref="D14" location="'Req_CFG_CC_Paths'!R1C1" tooltip="" display="Req_CFG_CC_Paths"/>
+    <hyperlink ref="D16" location="'Req_TC_coverage'!R1C1" tooltip="" display="Req_TC_coverage"/>
+    <hyperlink ref="D18" location="'Req_Statistics'!R1C1" tooltip="" display="Req_Statistics"/>
   </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -4331,103 +4599,103 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="45" style="6" customWidth="1"/>
-    <col min="2" max="2" width="54" style="6" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="6" customWidth="1"/>
+    <col min="1" max="1" width="45" style="25" customWidth="1"/>
+    <col min="2" max="2" width="54" style="25" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" ht="57.75" customHeight="1">
-      <c r="A2" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" t="s" s="27">
+        <v>14</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" ht="14.05" customHeight="1">
-      <c r="A4" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="A4" t="s" s="28">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="29">
+        <v>16</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" ht="14.55" customHeight="1">
-      <c r="A5" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" t="s" s="30">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s" s="31">
+        <v>18</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" ht="53.55" customHeight="1">
-      <c r="A6" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s" s="15">
-        <v>12</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="A6" t="s" s="31">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" ht="14.55" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" ht="27.55" customHeight="1">
-      <c r="A8" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="15">
-        <v>14</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="A8" t="s" s="30">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s" s="33">
+        <v>22</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" ht="40.55" customHeight="1">
-      <c r="A9" t="s" s="13">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" t="s" s="31">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" ht="14.05" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4446,442 +4714,442 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14" style="19" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="19" customWidth="1"/>
-    <col min="4" max="4" width="18.6719" style="19" customWidth="1"/>
-    <col min="5" max="13" width="8.85156" style="19" customWidth="1"/>
-    <col min="14" max="14" width="14.3516" style="19" customWidth="1"/>
-    <col min="15" max="15" width="8.85156" style="19" customWidth="1"/>
-    <col min="16" max="16384" width="8.85156" style="19" customWidth="1"/>
+    <col min="1" max="1" width="14" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="37" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="37" customWidth="1"/>
+    <col min="4" max="4" width="18.6719" style="37" customWidth="1"/>
+    <col min="5" max="13" width="8.85156" style="37" customWidth="1"/>
+    <col min="14" max="14" width="14.3516" style="37" customWidth="1"/>
+    <col min="15" max="15" width="8.85156" style="37" customWidth="1"/>
+    <col min="16" max="16384" width="8.85156" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="20"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="22"/>
-      <c r="M3" t="s" s="23">
-        <v>18</v>
-      </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="25"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="39"/>
+      <c r="M3" t="s" s="40">
+        <v>25</v>
+      </c>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="22"/>
-      <c r="M4" t="s" s="26">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s" s="27">
-        <v>20</v>
-      </c>
-      <c r="O4" s="28"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="39"/>
+      <c r="M4" t="s" s="43">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s" s="43">
+        <v>27</v>
+      </c>
+      <c r="O4" s="44"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="22"/>
-      <c r="M5" t="s" s="26">
-        <v>21</v>
-      </c>
-      <c r="N5" t="s" s="27">
-        <v>22</v>
-      </c>
-      <c r="O5" s="28"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="39"/>
+      <c r="M5" t="s" s="43">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s" s="43">
+        <v>29</v>
+      </c>
+      <c r="O5" s="44"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="22"/>
-      <c r="M6" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="N6" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="O6" s="28"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="39"/>
+      <c r="M6" t="s" s="43">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s" s="43">
+        <v>31</v>
+      </c>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="29"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="8"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="26"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="22"/>
-      <c r="M9" t="s" s="23">
-        <v>25</v>
-      </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="31"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="39"/>
+      <c r="M9" t="s" s="40">
+        <v>32</v>
+      </c>
+      <c r="N9" s="42"/>
+      <c r="O9" s="46"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="32">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="47">
         <v>1</v>
       </c>
-      <c r="N10" s="33">
+      <c r="N10" s="48">
         <v>45323</v>
       </c>
-      <c r="O10" s="31"/>
+      <c r="O10" s="46"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="32">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="47">
         <v>2</v>
       </c>
-      <c r="N11" t="s" s="34">
-        <v>26</v>
-      </c>
-      <c r="O11" s="31"/>
+      <c r="N11" t="s" s="49">
+        <v>33</v>
+      </c>
+      <c r="O11" s="46"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="32">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="47">
         <v>3</v>
       </c>
-      <c r="N12" t="s" s="27">
-        <v>27</v>
-      </c>
-      <c r="O12" s="31"/>
+      <c r="N12" t="s" s="43">
+        <v>34</v>
+      </c>
+      <c r="O12" s="46"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="32">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="47">
         <v>4</v>
       </c>
-      <c r="N13" t="s" s="27">
-        <v>28</v>
-      </c>
-      <c r="O13" s="31"/>
+      <c r="N13" t="s" s="43">
+        <v>35</v>
+      </c>
+      <c r="O13" s="46"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="32">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="47">
         <v>5</v>
       </c>
-      <c r="N14" t="s" s="27">
-        <v>29</v>
-      </c>
-      <c r="O14" s="31"/>
+      <c r="N14" t="s" s="43">
+        <v>36</v>
+      </c>
+      <c r="O14" s="46"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="8"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="26"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="8"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="8"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="8"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="8"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="8"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="8"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="8"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="8"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4905,870 +5173,870 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="8.85156" style="35" customWidth="1"/>
-    <col min="7" max="7" width="20.7266" style="35" customWidth="1"/>
-    <col min="8" max="8" width="20.0312" style="35" customWidth="1"/>
-    <col min="9" max="9" width="18.1719" style="35" customWidth="1"/>
-    <col min="10" max="16" width="3.67188" style="35" customWidth="1"/>
-    <col min="17" max="17" width="3.75" style="35" customWidth="1"/>
-    <col min="18" max="28" width="3.67188" style="35" customWidth="1"/>
-    <col min="29" max="29" width="4.67188" style="35" customWidth="1"/>
-    <col min="30" max="16384" width="8.85156" style="35" customWidth="1"/>
+    <col min="1" max="6" width="8.85156" style="50" customWidth="1"/>
+    <col min="7" max="7" width="20.6719" style="50" customWidth="1"/>
+    <col min="8" max="8" width="20" style="50" customWidth="1"/>
+    <col min="9" max="9" width="18.1719" style="50" customWidth="1"/>
+    <col min="10" max="16" width="3.67188" style="50" customWidth="1"/>
+    <col min="17" max="17" width="3.85156" style="50" customWidth="1"/>
+    <col min="18" max="28" width="3.67188" style="50" customWidth="1"/>
+    <col min="29" max="29" width="4.67188" style="50" customWidth="1"/>
+    <col min="30" max="16384" width="8.85156" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.55" customHeight="1">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
-      <c r="J1" t="s" s="40">
-        <v>31</v>
-      </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" t="s" s="42">
-        <v>32</v>
-      </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" t="s" s="44">
+      <c r="A1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
+      <c r="J1" t="s" s="54">
+        <v>37</v>
+      </c>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" t="s" s="56">
+        <v>38</v>
+      </c>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" t="s" s="58">
+        <v>39</v>
+      </c>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" t="s" s="62">
+        <v>40</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" t="s" s="64">
+        <v>41</v>
+      </c>
+      <c r="H2" s="65"/>
+      <c r="I2" t="s" s="66">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s" s="54">
+        <v>42</v>
+      </c>
+      <c r="K2" s="55"/>
+      <c r="L2" t="s" s="54">
+        <v>43</v>
+      </c>
+      <c r="M2" s="55"/>
+      <c r="N2" t="s" s="54">
+        <v>44</v>
+      </c>
+      <c r="O2" s="55"/>
+      <c r="P2" t="s" s="54">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="67">
+        <v>1</v>
+      </c>
+      <c r="S2" s="67">
+        <v>2</v>
+      </c>
+      <c r="T2" s="67">
+        <v>3</v>
+      </c>
+      <c r="U2" s="67">
+        <v>4</v>
+      </c>
+      <c r="V2" s="67">
+        <v>5</v>
+      </c>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="60"/>
+      <c r="B3" t="s" s="69">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s" s="70">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s" s="70">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s" s="70">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s" s="70">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s" s="70">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s" s="71">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s" s="72">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s" s="54">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s" s="54">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s" s="54">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s" s="54">
+        <v>55</v>
+      </c>
+      <c r="N3" t="s" s="54">
+        <v>54</v>
+      </c>
+      <c r="O3" t="s" s="54">
+        <v>55</v>
+      </c>
+      <c r="P3" t="s" s="54">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s" s="54">
+        <v>55</v>
+      </c>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" t="s" s="74">
+        <v>56</v>
+      </c>
+      <c r="X3" s="75">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="75">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="s" s="74">
+        <v>57</v>
+      </c>
+      <c r="AA3" t="s" s="74">
+        <v>58</v>
+      </c>
+      <c r="AB3" t="s" s="74">
+        <v>59</v>
+      </c>
+      <c r="AC3" t="s" s="74">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" ht="14.55" customHeight="1">
+      <c r="A4" s="60"/>
+      <c r="B4" s="76">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="77">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s" s="77">
+        <v>62</v>
+      </c>
+      <c r="E4" s="78">
+        <v>8</v>
+      </c>
+      <c r="F4" s="78">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s" s="77">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s" s="79">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s" s="66">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s" s="54">
+        <v>64</v>
+      </c>
+      <c r="K4" s="55"/>
+      <c r="L4" t="s" s="54">
+        <v>64</v>
+      </c>
+      <c r="M4" s="55"/>
+      <c r="N4" t="s" s="54">
+        <v>64</v>
+      </c>
+      <c r="O4" s="55"/>
+      <c r="P4" t="s" s="54">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" t="s" s="56">
+        <v>64</v>
+      </c>
+      <c r="W4" t="s" s="74">
+        <v>64</v>
+      </c>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+    </row>
+    <row r="5" ht="14.55" customHeight="1">
+      <c r="A5" s="60"/>
+      <c r="B5" s="76">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s" s="77">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s" s="77">
+        <v>66</v>
+      </c>
+      <c r="E5" s="78">
+        <v>8</v>
+      </c>
+      <c r="F5" s="78">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s" s="77">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s" s="79">
+        <v>67</v>
+      </c>
+      <c r="I5" s="80">
+        <v>45323</v>
+      </c>
+      <c r="J5" s="81"/>
+      <c r="K5" t="s" s="54">
+        <v>64</v>
+      </c>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" t="s" s="56">
+        <v>64</v>
+      </c>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" t="s" s="74">
+        <v>64</v>
+      </c>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+    </row>
+    <row r="6" ht="14.55" customHeight="1">
+      <c r="A6" s="60"/>
+      <c r="B6" s="76">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s" s="77">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s" s="77">
+        <v>62</v>
+      </c>
+      <c r="E6" s="78">
+        <v>8</v>
+      </c>
+      <c r="F6" s="78">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s" s="77">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s" s="79">
+        <v>67</v>
+      </c>
+      <c r="I6" s="80">
+        <v>45323</v>
+      </c>
+      <c r="J6" s="55"/>
+      <c r="K6" t="s" s="54">
+        <v>64</v>
+      </c>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" t="s" s="56">
+        <v>64</v>
+      </c>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" t="s" s="74">
+        <v>64</v>
+      </c>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+    </row>
+    <row r="7" ht="14.55" customHeight="1">
+      <c r="A7" s="60"/>
+      <c r="B7" s="76">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s" s="77">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s" s="77">
+        <v>65</v>
+      </c>
+      <c r="E7" s="78">
+        <v>8</v>
+      </c>
+      <c r="F7" s="78">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s" s="77">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s" s="79">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s" s="66">
         <v>33</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" t="s" s="48">
+      <c r="J7" t="s" s="54">
+        <v>64</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" t="s" s="54">
+        <v>64</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="57"/>
+      <c r="S7" t="s" s="56">
+        <v>64</v>
+      </c>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" t="s" s="74">
+        <v>64</v>
+      </c>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+    </row>
+    <row r="8" ht="14.55" customHeight="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="76">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s" s="77">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s" s="77">
+        <v>62</v>
+      </c>
+      <c r="E8" s="78">
+        <v>15</v>
+      </c>
+      <c r="F8" s="78">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s" s="77">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s" s="79">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s" s="66">
         <v>34</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" t="s" s="50">
+      <c r="J8" t="s" s="54">
+        <v>64</v>
+      </c>
+      <c r="K8" s="55"/>
+      <c r="L8" t="s" s="54">
+        <v>64</v>
+      </c>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" t="s" s="54">
+        <v>64</v>
+      </c>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" t="s" s="56">
+        <v>64</v>
+      </c>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" t="s" s="74">
+        <v>64</v>
+      </c>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+    </row>
+    <row r="9" ht="14.55" customHeight="1">
+      <c r="A9" s="60"/>
+      <c r="B9" s="82">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="83">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s" s="83">
+        <v>62</v>
+      </c>
+      <c r="E9" s="84">
+        <v>8</v>
+      </c>
+      <c r="F9" s="84">
+        <v>-1</v>
+      </c>
+      <c r="G9" t="s" s="83">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s" s="85">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s" s="66">
         <v>35</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" t="s" s="52">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s" s="40">
-        <v>36</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" t="s" s="40">
-        <v>37</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" t="s" s="40">
-        <v>38</v>
-      </c>
-      <c r="O2" s="41"/>
-      <c r="P2" t="s" s="40">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="53">
-        <v>1</v>
-      </c>
-      <c r="S2" s="53">
-        <v>2</v>
-      </c>
-      <c r="T2" s="53">
-        <v>3</v>
-      </c>
-      <c r="U2" s="53">
-        <v>4</v>
-      </c>
-      <c r="V2" s="53">
-        <v>5</v>
-      </c>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" t="s" s="55">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s" s="56">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s" s="56">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s" s="56">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s" s="56">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s" s="57">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s" s="58">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s" s="59">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s" s="40">
-        <v>48</v>
-      </c>
-      <c r="K3" t="s" s="40">
-        <v>49</v>
-      </c>
-      <c r="L3" t="s" s="40">
-        <v>48</v>
-      </c>
-      <c r="M3" t="s" s="40">
-        <v>49</v>
-      </c>
-      <c r="N3" t="s" s="40">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s" s="40">
-        <v>49</v>
-      </c>
-      <c r="P3" t="s" s="40">
-        <v>48</v>
-      </c>
-      <c r="Q3" t="s" s="40">
-        <v>49</v>
-      </c>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" t="s" s="61">
-        <v>50</v>
-      </c>
-      <c r="X3" s="62">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="62">
-        <v>2</v>
-      </c>
-      <c r="Z3" t="s" s="61">
-        <v>51</v>
-      </c>
-      <c r="AA3" t="s" s="61">
-        <v>52</v>
-      </c>
-      <c r="AB3" t="s" s="61">
-        <v>53</v>
-      </c>
-      <c r="AC3" t="s" s="61">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" ht="14.55" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="63">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s" s="64">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s" s="64">
-        <v>56</v>
-      </c>
-      <c r="E4" s="65">
-        <v>8</v>
-      </c>
-      <c r="F4" s="65">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s" s="66">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s" s="67">
-        <v>57</v>
-      </c>
-      <c r="I4" t="s" s="52">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s" s="40">
-        <v>58</v>
-      </c>
-      <c r="K4" s="41"/>
-      <c r="L4" t="s" s="40">
-        <v>58</v>
-      </c>
-      <c r="M4" s="41"/>
-      <c r="N4" t="s" s="40">
-        <v>58</v>
-      </c>
-      <c r="O4" s="41"/>
-      <c r="P4" t="s" s="40">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" t="s" s="42">
-        <v>58</v>
-      </c>
-      <c r="W4" t="s" s="61">
-        <v>58</v>
-      </c>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-    </row>
-    <row r="5" ht="14.55" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="63">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s" s="64">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s" s="64">
-        <v>60</v>
-      </c>
-      <c r="E5" s="65">
-        <v>8</v>
-      </c>
-      <c r="F5" s="65">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s" s="66">
-        <v>61</v>
-      </c>
-      <c r="H5" t="s" s="67">
-        <v>61</v>
-      </c>
-      <c r="I5" s="68">
-        <v>45323</v>
-      </c>
-      <c r="J5" s="69"/>
-      <c r="K5" t="s" s="40">
-        <v>58</v>
-      </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" t="s" s="42">
-        <v>58</v>
-      </c>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" t="s" s="61">
-        <v>58</v>
-      </c>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-    </row>
-    <row r="6" ht="14.55" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="63">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s" s="64">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s" s="64">
-        <v>56</v>
-      </c>
-      <c r="E6" s="65">
-        <v>8</v>
-      </c>
-      <c r="F6" s="65">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s" s="66">
-        <v>61</v>
-      </c>
-      <c r="H6" t="s" s="67">
-        <v>61</v>
-      </c>
-      <c r="I6" s="68">
-        <v>45323</v>
-      </c>
-      <c r="J6" s="41"/>
-      <c r="K6" t="s" s="40">
-        <v>58</v>
-      </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" t="s" s="42">
-        <v>58</v>
-      </c>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" t="s" s="61">
-        <v>58</v>
-      </c>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-    </row>
-    <row r="7" ht="14.55" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="63">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s" s="64">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s" s="64">
-        <v>59</v>
-      </c>
-      <c r="E7" s="65">
-        <v>8</v>
-      </c>
-      <c r="F7" s="65">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s" s="66">
-        <v>61</v>
-      </c>
-      <c r="H7" t="s" s="67">
-        <v>61</v>
-      </c>
-      <c r="I7" t="s" s="52">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s" s="40">
-        <v>58</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" t="s" s="40">
-        <v>58</v>
-      </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="43"/>
-      <c r="S7" t="s" s="42">
-        <v>58</v>
-      </c>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" t="s" s="61">
-        <v>58</v>
-      </c>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-    </row>
-    <row r="8" ht="14.55" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="63">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s" s="64">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s" s="64">
-        <v>56</v>
-      </c>
-      <c r="E8" s="65">
-        <v>14</v>
-      </c>
-      <c r="F8" s="65">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s" s="66">
-        <v>61</v>
-      </c>
-      <c r="H8" t="s" s="67">
-        <v>61</v>
-      </c>
-      <c r="I8" t="s" s="52">
-        <v>27</v>
-      </c>
-      <c r="J8" t="s" s="40">
-        <v>58</v>
-      </c>
-      <c r="K8" s="41"/>
-      <c r="L8" t="s" s="40">
-        <v>58</v>
-      </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" t="s" s="40">
-        <v>58</v>
-      </c>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" t="s" s="42">
-        <v>58</v>
-      </c>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" t="s" s="61">
-        <v>58</v>
-      </c>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-    </row>
-    <row r="9" ht="14.55" customHeight="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="70">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s" s="71">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s" s="71">
-        <v>56</v>
-      </c>
-      <c r="E9" s="72">
-        <v>8</v>
-      </c>
-      <c r="F9" s="72">
-        <v>-1</v>
-      </c>
-      <c r="G9" t="s" s="73">
-        <v>61</v>
-      </c>
-      <c r="H9" t="s" s="74">
-        <v>61</v>
-      </c>
-      <c r="I9" t="s" s="52">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s" s="40">
-        <v>58</v>
-      </c>
-      <c r="K9" s="41"/>
-      <c r="L9" t="s" s="40">
-        <v>58</v>
-      </c>
-      <c r="M9" s="41"/>
-      <c r="N9" t="s" s="40">
-        <v>58</v>
-      </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" t="s" s="40">
-        <v>58</v>
-      </c>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" t="s" s="42">
-        <v>58</v>
-      </c>
-      <c r="V9" s="43"/>
-      <c r="W9" t="s" s="61">
-        <v>58</v>
-      </c>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
+      <c r="J9" t="s" s="54">
+        <v>64</v>
+      </c>
+      <c r="K9" s="55"/>
+      <c r="L9" t="s" s="54">
+        <v>64</v>
+      </c>
+      <c r="M9" s="55"/>
+      <c r="N9" t="s" s="54">
+        <v>64</v>
+      </c>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" t="s" s="54">
+        <v>64</v>
+      </c>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" t="s" s="56">
+        <v>64</v>
+      </c>
+      <c r="V9" s="57"/>
+      <c r="W9" t="s" s="74">
+        <v>64</v>
+      </c>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
     </row>
     <row r="10" ht="14.05" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="76"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="86"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="77"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="39"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="77"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="39"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="77"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="39"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" t="s" s="78">
-        <v>62</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="77"/>
+      <c r="A14" s="46"/>
+      <c r="B14" t="s" s="87">
+        <v>68</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="39"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="77"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="39"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="77"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="39"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="77"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="39"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="8"/>
-      <c r="C18" t="s" s="79">
-        <v>63</v>
-      </c>
-      <c r="D18" s="80"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="77"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="26"/>
+      <c r="C18" t="s" s="88">
+        <v>69</v>
+      </c>
+      <c r="D18" s="89"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="39"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="8"/>
-      <c r="C19" t="s" s="79">
-        <v>64</v>
-      </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="77"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="26"/>
+      <c r="C19" t="s" s="88">
+        <v>70</v>
+      </c>
+      <c r="D19" s="89"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="39"/>
     </row>
     <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="82"/>
-      <c r="B20" s="20"/>
-      <c r="C20" t="s" s="83">
-        <v>65</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="84"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="38"/>
+      <c r="C20" t="s" s="91">
+        <v>71</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -5804,216 +6072,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="12" width="8.85156" style="85" customWidth="1"/>
-    <col min="13" max="13" width="12.1719" style="85" customWidth="1"/>
-    <col min="14" max="16384" width="8.85156" style="85" customWidth="1"/>
+    <col min="1" max="12" width="8.85156" style="93" customWidth="1"/>
+    <col min="13" max="13" width="12.1719" style="93" customWidth="1"/>
+    <col min="14" max="16384" width="8.85156" style="93" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="7"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="86"/>
-      <c r="C4" t="s" s="87">
-        <v>67</v>
-      </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" t="s" s="87">
-        <v>68</v>
-      </c>
-      <c r="I4" t="s" s="87">
-        <v>69</v>
-      </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="89"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="92"/>
+      <c r="C4" t="s" s="94">
+        <v>72</v>
+      </c>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" t="s" s="94">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s" s="94">
+        <v>74</v>
+      </c>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="44"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" t="s" s="90">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s" s="90">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s" s="90">
-        <v>72</v>
-      </c>
-      <c r="E5" t="s" s="90">
-        <v>73</v>
-      </c>
-      <c r="F5" t="s" s="91">
-        <v>74</v>
-      </c>
-      <c r="G5" t="s" s="90">
+      <c r="A5" s="39"/>
+      <c r="B5" t="s" s="96">
         <v>75</v>
       </c>
-      <c r="H5" t="s" s="92">
+      <c r="C5" t="s" s="96">
         <v>76</v>
       </c>
-      <c r="I5" t="s" s="92">
+      <c r="D5" t="s" s="96">
         <v>77</v>
       </c>
-      <c r="J5" t="s" s="90">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s" s="90">
-        <v>72</v>
-      </c>
-      <c r="L5" t="s" s="90">
-        <v>73</v>
-      </c>
-      <c r="M5" t="s" s="93">
-        <v>74</v>
+      <c r="E5" t="s" s="96">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s" s="97">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s" s="96">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s" s="98">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s" s="98">
+        <v>82</v>
+      </c>
+      <c r="J5" t="s" s="96">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s" s="96">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s" s="96">
+        <v>78</v>
+      </c>
+      <c r="M5" t="s" s="99">
+        <v>79</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="97"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" t="s" s="98">
-        <v>78</v>
-      </c>
-      <c r="C7" s="99">
+      <c r="A7" s="39"/>
+      <c r="B7" t="s" s="104">
+        <v>83</v>
+      </c>
+      <c r="C7" s="105">
         <f>SUM(D7:E7)</f>
         <v>27</v>
       </c>
-      <c r="D7" s="99">
+      <c r="D7" s="105">
         <v>14</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="105">
         <v>13</v>
       </c>
-      <c r="F7" s="99">
+      <c r="F7" s="105">
         <v>100</v>
       </c>
-      <c r="G7" s="99">
+      <c r="G7" s="105">
         <v>1</v>
       </c>
-      <c r="H7" t="s" s="56">
-        <v>79</v>
-      </c>
-      <c r="I7" t="s" s="56">
-        <v>79</v>
-      </c>
-      <c r="J7" s="99">
+      <c r="H7" t="s" s="70">
+        <v>84</v>
+      </c>
+      <c r="I7" t="s" s="70">
+        <v>84</v>
+      </c>
+      <c r="J7" s="105">
         <f>SUM(K7:L7)</f>
         <v>14</v>
       </c>
-      <c r="K7" s="99">
+      <c r="K7" s="105">
         <v>14</v>
       </c>
-      <c r="L7" s="99">
+      <c r="L7" s="105">
         <v>0</v>
       </c>
-      <c r="M7" s="100">
+      <c r="M7" s="105">
         <v>100</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="7"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="7"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Sem VI/Software Systems Verification & Validation/Laboratories/Lab03/solution/take-home/Lab03_WBT_Form.xlsx
+++ b/Sem VI/Software Systems Verification & Validation/Laboratories/Lab03/solution/take-home/Lab03_WBT_Form.xlsx
@@ -560,7 +560,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <color indexed="13"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -617,7 +617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -656,11 +656,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -669,7 +669,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -677,17 +677,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
@@ -704,7 +704,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom/>
@@ -712,12 +712,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,45 +737,34 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -791,22 +791,22 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -818,28 +818,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -848,16 +848,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,16 +915,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,13 +933,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,22 +948,22 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -975,7 +975,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
@@ -996,10 +996,10 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,7 +1038,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -1050,7 +1050,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
@@ -1059,7 +1059,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,7 +1099,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1181,7 +1181,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -1190,7 +1190,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,10 +1199,10 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1211,13 +1211,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1235,7 +1235,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,7 +1247,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1282,28 +1282,28 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1321,20 +1321,20 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -1599,8 +1599,8 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffffff00"/>
       <rgbColor rgb="ff92d050"/>
       <rgbColor rgb="ff99ccff"/>
@@ -1618,15 +1618,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
+      <xdr:colOff>357185</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>119138</xdr:rowOff>
+      <xdr:rowOff>119298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>709612</xdr:colOff>
+      <xdr:colOff>728661</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176135</xdr:rowOff>
+      <xdr:rowOff>175974</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1635,10 +1635,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="376237" y="309638"/>
-          <a:ext cx="3381376" cy="3866998"/>
-          <a:chOff x="-14287" y="-161"/>
-          <a:chExt cx="3381375" cy="3866996"/>
+          <a:off x="357185" y="309798"/>
+          <a:ext cx="3419477" cy="3866677"/>
+          <a:chOff x="-19050" y="0"/>
+          <a:chExt cx="3419476" cy="3866675"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -1648,8 +1648,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="-1"/>
-            <a:ext cx="3352800" cy="3866676"/>
+            <a:off x="14288" y="0"/>
+            <a:ext cx="3352801" cy="3866676"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1706,8 +1706,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-14288" y="-162"/>
-            <a:ext cx="3381376" cy="3866998"/>
+            <a:off x="-19050" y="94773"/>
+            <a:ext cx="3419477" cy="3677130"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2282,7 +2282,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>668336</xdr:colOff>
+      <xdr:colOff>668335</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2293,8 +2293,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4475161" y="561975"/>
-          <a:ext cx="4029076" cy="3362325"/>
+          <a:off x="4475162" y="561975"/>
+          <a:ext cx="4029074" cy="3362325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2351,11 +2351,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>673098</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>308963</xdr:colOff>
+      <xdr:colOff>328014</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>86550</xdr:rowOff>
     </xdr:to>
@@ -2366,10 +2366,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5816598" y="661988"/>
-          <a:ext cx="1655166" cy="758063"/>
+          <a:off x="5816598" y="661987"/>
+          <a:ext cx="1674217" cy="758064"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="1655164" cy="758062"/>
+          <a:chExt cx="1674216" cy="758062"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2379,8 +2379,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="1439247" cy="758063"/>
+            <a:off x="-1" y="0"/>
+            <a:ext cx="1439249" cy="758063"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse">
             <a:avLst/>
@@ -2412,8 +2412,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="36308" y="210531"/>
-            <a:ext cx="1618857" cy="225417"/>
+            <a:off x="17257" y="195830"/>
+            <a:ext cx="1656960" cy="225415"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2489,7 +2489,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>267459</xdr:colOff>
+      <xdr:colOff>267458</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>50239</xdr:rowOff>
     </xdr:to>
@@ -2511,7 +2511,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4779135" y="1473760"/>
-          <a:ext cx="3324225" cy="2386480"/>
+          <a:ext cx="3324224" cy="2386480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2528,15 +2528,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>527050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>74929</xdr:rowOff>
+      <xdr:rowOff>61593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>88899</xdr:rowOff>
+      <xdr:rowOff>75563</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2545,8 +2545,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6350000" y="1598929"/>
-          <a:ext cx="139701" cy="204471"/>
+          <a:off x="6343650" y="1585593"/>
+          <a:ext cx="139700" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2615,15 +2615,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:colOff>654050</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>176529</xdr:rowOff>
+      <xdr:rowOff>163193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>120650</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>177163</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2632,7 +2632,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5130800" y="2272029"/>
+          <a:off x="5124450" y="2258693"/>
           <a:ext cx="139700" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2702,15 +2702,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>376766</xdr:colOff>
+      <xdr:colOff>370416</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>133667</xdr:rowOff>
+      <xdr:rowOff>120332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>516466</xdr:colOff>
+      <xdr:colOff>510116</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>134302</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2719,7 +2719,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6866466" y="2038667"/>
+          <a:off x="6860116" y="2025332"/>
           <a:ext cx="139701" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2789,15 +2789,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>440266</xdr:colOff>
+      <xdr:colOff>433916</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>74929</xdr:rowOff>
+      <xdr:rowOff>61593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>579966</xdr:colOff>
+      <xdr:colOff>573616</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>88899</xdr:rowOff>
+      <xdr:rowOff>75563</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2806,7 +2806,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7603066" y="2551429"/>
+          <a:off x="7596716" y="2538093"/>
           <a:ext cx="139701" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2876,15 +2876,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>184150</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>74930</xdr:rowOff>
+      <xdr:rowOff>61594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>75564</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2893,7 +2893,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6007100" y="3313430"/>
+          <a:off x="6000750" y="3300094"/>
           <a:ext cx="139700" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2963,15 +2963,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:colOff>387350</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>74929</xdr:rowOff>
+      <xdr:rowOff>61593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>527050</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>88899</xdr:rowOff>
+      <xdr:rowOff>75563</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2980,7 +2980,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5537200" y="2741929"/>
+          <a:off x="5530850" y="2728593"/>
           <a:ext cx="139700" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3050,15 +3050,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>59231</xdr:colOff>
+      <xdr:colOff>52881</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:rowOff>150494</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>198931</xdr:colOff>
+      <xdr:colOff>192581</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>164464</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3067,7 +3067,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6548931" y="3592830"/>
+          <a:off x="6542581" y="3579494"/>
           <a:ext cx="139701" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3137,15 +3137,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>31792</xdr:colOff>
+      <xdr:colOff>25441</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>62229</xdr:rowOff>
+      <xdr:rowOff>48893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>171492</xdr:colOff>
+      <xdr:colOff>165141</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>62863</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3154,7 +3154,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7867692" y="2919729"/>
+          <a:off x="7861341" y="2906393"/>
           <a:ext cx="139701" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3224,15 +3224,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>95292</xdr:colOff>
+      <xdr:colOff>88941</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>176530</xdr:rowOff>
+      <xdr:rowOff>163194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>234992</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>228641</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177164</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3241,7 +3241,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7931192" y="3415030"/>
+          <a:off x="7924841" y="3401694"/>
           <a:ext cx="139701" cy="204471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3311,13 +3311,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>440764</xdr:colOff>
+      <xdr:colOff>440763</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>82403</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>132971</xdr:colOff>
+      <xdr:colOff>132970</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>112172</xdr:rowOff>
     </xdr:to>
@@ -3328,8 +3328,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6257364" y="1415903"/>
-          <a:ext cx="365308" cy="220270"/>
+          <a:off x="6257363" y="1415903"/>
+          <a:ext cx="365308" cy="220269"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4391,7 +4391,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4549,16 +4549,19 @@
       <c r="D16" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17">
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" ht="13" customHeight="1">
+      <c r="A17" s="7"/>
       <c r="B17" t="s" s="3">
         <v>12</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" ht="13" customHeight="1">
+      <c r="A18" s="20"/>
       <c r="B18" s="4"/>
       <c r="C18" t="s" s="4">
         <v>5</v>
@@ -4566,6 +4569,7 @@
       <c r="D18" t="s" s="5">
         <v>12</v>
       </c>
+      <c r="E18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4575,9 +4579,10 @@
   <hyperlinks>
     <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'Problem'!R1C1" tooltip="" display="Problem"/>
-    <hyperlink ref="D12" location="'Req_CFG_CC_Paths'!R1C1" tooltip="" display="Req_CFG_CC_Paths"/>
-    <hyperlink ref="D14" location="'Req_TC_coverage'!R1C1" tooltip="" display="Req_TC_coverage"/>
-    <hyperlink ref="D16" location="'Req_Statistics'!R1C1" tooltip="" display="Req_Statistics"/>
+    <hyperlink ref="D12" location="'Problem'!R1C1" tooltip="" display="Problem"/>
+    <hyperlink ref="D14" location="'Req_CFG_CC_Paths'!R1C1" tooltip="" display="Req_CFG_CC_Paths"/>
+    <hyperlink ref="D16" location="'Req_TC_coverage'!R1C1" tooltip="" display="Req_TC_coverage"/>
+    <hyperlink ref="D18" location="'Req_Statistics'!R1C1" tooltip="" display="Req_Statistics"/>
     <hyperlink ref="D12" location="'Problem'!R1C1" tooltip="" display="Problem"/>
     <hyperlink ref="D14" location="'Req_CFG_CC_Paths'!R1C1" tooltip="" display="Req_CFG_CC_Paths"/>
     <hyperlink ref="D16" location="'Req_TC_coverage'!R1C1" tooltip="" display="Req_TC_coverage"/>
@@ -6204,13 +6209,13 @@
       </c>
       <c r="C7" s="105">
         <f>SUM(D7:E7)</f>
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D7" s="105">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E7" s="105">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F7" s="105">
         <v>100</v>
@@ -6225,11 +6230,11 @@
         <v>84</v>
       </c>
       <c r="J7" s="105">
-        <f>SUM(K7:L7)</f>
-        <v>14</v>
+        <f>SUM(K7:L7)+K9</f>
+        <v>6</v>
       </c>
       <c r="K7" s="105">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L7" s="105">
         <v>0</v>
